--- a/pages/records/data/records.xlsx
+++ b/pages/records/data/records.xlsx
@@ -16,23 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>Nacional</t>
   </si>
   <si>
-    <t>Titulo</t>
-  </si>
-  <si>
-    <t>Artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origem </t>
-  </si>
-  <si>
-    <t>Produtora</t>
-  </si>
-  <si>
     <t>Caetano Veloso</t>
   </si>
   <si>
@@ -57,9 +45,6 @@
     <t>The Smiths</t>
   </si>
   <si>
-    <t>Ano</t>
-  </si>
-  <si>
     <t>RCA Eletronica Ltda</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>Discos</t>
-  </si>
-  <si>
     <t>Concert - The Cure Live</t>
   </si>
   <si>
@@ -153,9 +135,6 @@
     <t>Enya</t>
   </si>
   <si>
-    <t>Imagem</t>
-  </si>
-  <si>
     <t>Cores Nomes</t>
   </si>
   <si>
@@ -181,6 +160,30 @@
   </si>
   <si>
     <t>./img/OutOfTimeREM.jpg</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>discs</t>
+  </si>
+  <si>
+    <t>origem</t>
+  </si>
+  <si>
+    <t>productor</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -533,428 +536,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G2" s="2">
+        <v>1982</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1986</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1990</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1988</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1986</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1984</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1982</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>1986</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="F5" s="2">
-        <v>1990</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1988</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1986</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1984</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/pages/records/data/records.xlsx
+++ b/pages/records/data/records.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>Nacional</t>
   </si>
@@ -48,9 +48,6 @@
     <t>RCA Eletronica Ltda</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Paralamas Arquivo Maiores Sucessos</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>./img/OutOfTimeREM.jpg</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -180,10 +174,37 @@
     <t>productor</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>./img/u2-joshua-tree.jpg</t>
+  </si>
+  <si>
+    <t>./img/the-cure-concert.jpg</t>
+  </si>
+  <si>
+    <t>./img/the-cure-kiss-kiss.jpg</t>
+  </si>
+  <si>
+    <t>./img/tracy-chapman.jpg</t>
+  </si>
+  <si>
+    <t>./img/engenheiros-papa-pop.jpg</t>
+  </si>
+  <si>
+    <t>./img/technique-new-order.jpg</t>
+  </si>
+  <si>
+    <t>./img/legiao-urbana-4-estacoes.jpg</t>
+  </si>
+  <si>
+    <t>./img/new-order.jpg</t>
+  </si>
+  <si>
+    <t>./img/enya-watermark.jpg</t>
+  </si>
+  <si>
+    <t>./img/madonna-immaculate.jpg</t>
   </si>
 </sst>
 </file>
@@ -536,489 +557,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1982</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1986</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1990</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1988</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1986</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1984</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F19">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
